--- a/data/pca/factorExposure/factorExposure_2018-04-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-04-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.009261828097176026</v>
+        <v>-0.01990950919566212</v>
       </c>
       <c r="C2">
-        <v>-0.02166796427192645</v>
+        <v>0.01779825788705957</v>
       </c>
       <c r="D2">
-        <v>-0.02889605589549483</v>
+        <v>-0.029871431377576</v>
       </c>
       <c r="E2">
-        <v>-0.01331011995668508</v>
+        <v>-0.0154288850934095</v>
       </c>
       <c r="F2">
-        <v>0.103201659798035</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.004318678619461658</v>
+      </c>
+      <c r="G2">
+        <v>-0.0437406449120177</v>
+      </c>
+      <c r="H2">
+        <v>0.04930635063938524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.08479185515670135</v>
+        <v>-0.0728742998786914</v>
       </c>
       <c r="C3">
-        <v>-0.0512423715016983</v>
+        <v>-0.01159135567534862</v>
       </c>
       <c r="D3">
-        <v>-0.03713009550779612</v>
+        <v>-0.07376651058373816</v>
       </c>
       <c r="E3">
-        <v>0.03765585605628605</v>
+        <v>-0.006832627857215578</v>
       </c>
       <c r="F3">
-        <v>0.3614311622676668</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.00960020690172831</v>
+      </c>
+      <c r="G3">
+        <v>-0.1624498035086495</v>
+      </c>
+      <c r="H3">
+        <v>0.1290709913969195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04616174798101947</v>
+        <v>-0.04039352605556516</v>
       </c>
       <c r="C4">
-        <v>-0.01286892338590859</v>
+        <v>0.005193143687795016</v>
       </c>
       <c r="D4">
-        <v>-0.02226406414407754</v>
+        <v>-0.06368563615222893</v>
       </c>
       <c r="E4">
-        <v>-0.04491029370940767</v>
+        <v>0.02003271460103901</v>
       </c>
       <c r="F4">
-        <v>0.06566323182484243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.04183221431113303</v>
+      </c>
+      <c r="G4">
+        <v>-0.04153560281324582</v>
+      </c>
+      <c r="H4">
+        <v>0.05776103141866278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03290709185384198</v>
+        <v>-0.02601388366752266</v>
       </c>
       <c r="C6">
-        <v>-0.01353696252739772</v>
+        <v>0.001165944548346128</v>
       </c>
       <c r="D6">
-        <v>-0.01995612795407435</v>
+        <v>-0.06260128870286578</v>
       </c>
       <c r="E6">
-        <v>-0.02537277508398711</v>
+        <v>0.004807727719935403</v>
       </c>
       <c r="F6">
-        <v>0.01115886638490074</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.03025519077202362</v>
+      </c>
+      <c r="G6">
+        <v>-0.01541468545361872</v>
+      </c>
+      <c r="H6">
+        <v>0.06543531330480036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03891083728295964</v>
+        <v>-0.01488682167880488</v>
       </c>
       <c r="C7">
-        <v>0.0290696984123122</v>
+        <v>0.00342521491644189</v>
       </c>
       <c r="D7">
-        <v>-0.02823139865478846</v>
+        <v>-0.0356255276229191</v>
       </c>
       <c r="E7">
-        <v>-0.03055965258407443</v>
+        <v>0.04468603528267934</v>
       </c>
       <c r="F7">
-        <v>0.04313414633280624</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.001106795715142228</v>
+      </c>
+      <c r="G7">
+        <v>-0.02326840036996755</v>
+      </c>
+      <c r="H7">
+        <v>0.04330864713180587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01840327427635967</v>
+        <v>-0.004571477233014173</v>
       </c>
       <c r="C8">
-        <v>-0.004286601906629753</v>
+        <v>-0.001976191616677026</v>
       </c>
       <c r="D8">
-        <v>-0.03371986332892206</v>
+        <v>-0.01577756571854083</v>
       </c>
       <c r="E8">
-        <v>-0.0350008200135101</v>
+        <v>0.00901068888672049</v>
       </c>
       <c r="F8">
-        <v>0.07231467898728308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.01541160635126518</v>
+      </c>
+      <c r="G8">
+        <v>-0.04072131783690763</v>
+      </c>
+      <c r="H8">
+        <v>0.03969233995328345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03428983348277341</v>
+        <v>-0.03109420831783316</v>
       </c>
       <c r="C9">
-        <v>-0.008975551819834031</v>
+        <v>0.001762875197033376</v>
       </c>
       <c r="D9">
-        <v>-0.02928552396465024</v>
+        <v>-0.0473557758360121</v>
       </c>
       <c r="E9">
-        <v>-0.03367864460138513</v>
+        <v>0.009096511973892347</v>
       </c>
       <c r="F9">
-        <v>0.08348846018334011</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.01803724868163623</v>
+      </c>
+      <c r="G9">
+        <v>-0.04607191956909473</v>
+      </c>
+      <c r="H9">
+        <v>0.05740396277310077</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03819334543089876</v>
+        <v>-0.123560371424669</v>
       </c>
       <c r="C10">
-        <v>-0.004567543373840392</v>
+        <v>-0.006129208390081131</v>
       </c>
       <c r="D10">
-        <v>0.1170001700298867</v>
+        <v>0.1587577146264932</v>
       </c>
       <c r="E10">
-        <v>0.1063900092907769</v>
+        <v>-0.0002935989797313273</v>
       </c>
       <c r="F10">
-        <v>0.05716425888938122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.03493410425412495</v>
+      </c>
+      <c r="G10">
+        <v>-0.03190188329742313</v>
+      </c>
+      <c r="H10">
+        <v>0.0002766775608192763</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02874962054426654</v>
+        <v>-0.01751770405532633</v>
       </c>
       <c r="C11">
-        <v>-0.01995864710543738</v>
+        <v>-0.009672190891916177</v>
       </c>
       <c r="D11">
-        <v>-0.03022491401529026</v>
+        <v>-0.05015412672433832</v>
       </c>
       <c r="E11">
-        <v>-0.03075004795424142</v>
+        <v>-0.0006895405861342062</v>
       </c>
       <c r="F11">
-        <v>0.03786304883200413</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.01056361547322666</v>
+      </c>
+      <c r="G11">
+        <v>-0.02643347275770386</v>
+      </c>
+      <c r="H11">
+        <v>0.05145444727973594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03962412631933489</v>
+        <v>-0.02245587714976314</v>
       </c>
       <c r="C12">
-        <v>-0.01982144888387446</v>
+        <v>-0.006111727313188343</v>
       </c>
       <c r="D12">
-        <v>-0.02258152411292774</v>
+        <v>-0.04846611286743977</v>
       </c>
       <c r="E12">
-        <v>-0.03807960971536732</v>
+        <v>0.01040542829267745</v>
       </c>
       <c r="F12">
-        <v>0.0115593268227457</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01342364483264735</v>
+      </c>
+      <c r="G12">
+        <v>-0.007062428610751276</v>
+      </c>
+      <c r="H12">
+        <v>0.02354779443216429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008882908778847124</v>
+        <v>-0.02451182095265948</v>
       </c>
       <c r="C13">
-        <v>-0.02038883204369548</v>
+        <v>0.01410837979925907</v>
       </c>
       <c r="D13">
-        <v>-0.01008496866188773</v>
+        <v>-0.02476525094721986</v>
       </c>
       <c r="E13">
-        <v>-0.01514421156033148</v>
+        <v>-0.0111696723780076</v>
       </c>
       <c r="F13">
-        <v>0.07698505546889972</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.0209994288828922</v>
+      </c>
+      <c r="G13">
+        <v>-0.06110821646560012</v>
+      </c>
+      <c r="H13">
+        <v>0.07969719318836668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02170293090273404</v>
+        <v>-0.01607318219833136</v>
       </c>
       <c r="C14">
-        <v>0.002447870536830456</v>
+        <v>0.001290276856513354</v>
       </c>
       <c r="D14">
-        <v>-0.0160487397516924</v>
+        <v>-0.0164744034448031</v>
       </c>
       <c r="E14">
-        <v>-0.02925230535460761</v>
+        <v>0.01539830552191888</v>
       </c>
       <c r="F14">
-        <v>0.05295995847224796</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.01190982045568001</v>
+      </c>
+      <c r="G14">
+        <v>-0.04154257605996631</v>
+      </c>
+      <c r="H14">
+        <v>0.01636852175402409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02858433631845144</v>
+        <v>-0.02049933298738831</v>
       </c>
       <c r="C16">
-        <v>-0.01910980464212955</v>
+        <v>-0.00939196421765867</v>
       </c>
       <c r="D16">
-        <v>-0.0328025359635312</v>
+        <v>-0.04125979847749607</v>
       </c>
       <c r="E16">
-        <v>-0.03561379134662981</v>
+        <v>0.003024140040083013</v>
       </c>
       <c r="F16">
-        <v>0.03654748956042023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.01333472345324711</v>
+      </c>
+      <c r="G16">
+        <v>-0.02163716283129531</v>
+      </c>
+      <c r="H16">
+        <v>0.03970774428963553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03049588924305455</v>
+        <v>-0.02279420802752192</v>
       </c>
       <c r="C19">
-        <v>-0.02098853935165497</v>
+        <v>0.001490495743410238</v>
       </c>
       <c r="D19">
-        <v>-0.02839036079430765</v>
+        <v>-0.04586627026811738</v>
       </c>
       <c r="E19">
-        <v>-0.03732221782226052</v>
+        <v>0.006830371116853273</v>
       </c>
       <c r="F19">
-        <v>0.08889773556932029</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.02451855723512046</v>
+      </c>
+      <c r="G19">
+        <v>-0.05698097495464539</v>
+      </c>
+      <c r="H19">
+        <v>0.06078140442543771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001020226036532746</v>
+        <v>-0.008070894969394395</v>
       </c>
       <c r="C20">
-        <v>0.006116248476696576</v>
+        <v>0.005759715531572519</v>
       </c>
       <c r="D20">
-        <v>-0.01116257878854775</v>
+        <v>-0.0228042607317903</v>
       </c>
       <c r="E20">
-        <v>-0.02153147566960638</v>
+        <v>0.004371944232387827</v>
       </c>
       <c r="F20">
-        <v>0.06904271159160834</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01249614692905803</v>
+      </c>
+      <c r="G20">
+        <v>-0.05583864725163887</v>
+      </c>
+      <c r="H20">
+        <v>0.03213401939636895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01669044417961452</v>
+        <v>-0.01335875286301847</v>
       </c>
       <c r="C21">
-        <v>0.01855817241752909</v>
+        <v>0.007261186356143249</v>
       </c>
       <c r="D21">
-        <v>-0.03528960348302956</v>
+        <v>-0.0264820386398361</v>
       </c>
       <c r="E21">
-        <v>-0.01717966341864758</v>
+        <v>0.02090624305034304</v>
       </c>
       <c r="F21">
-        <v>0.0335907346802895</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.00347114953175901</v>
+      </c>
+      <c r="G21">
+        <v>-0.04948690223716683</v>
+      </c>
+      <c r="H21">
+        <v>0.0462384611235729</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.026236348218391</v>
+        <v>-0.01544263776513857</v>
       </c>
       <c r="C24">
-        <v>-0.0178155356175573</v>
+        <v>-0.003989004677185987</v>
       </c>
       <c r="D24">
-        <v>-0.01478835425345361</v>
+        <v>-0.04392098699288683</v>
       </c>
       <c r="E24">
-        <v>-0.02419982752105126</v>
+        <v>0.001080366503323269</v>
       </c>
       <c r="F24">
-        <v>0.03952189234941028</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.009592543339324045</v>
+      </c>
+      <c r="G24">
+        <v>-0.0164858776594063</v>
+      </c>
+      <c r="H24">
+        <v>0.0479940438390127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03034534637603125</v>
+        <v>-0.02743284541712154</v>
       </c>
       <c r="C25">
-        <v>-0.01627011364905659</v>
+        <v>-0.001609196423622255</v>
       </c>
       <c r="D25">
-        <v>-0.02966549354804915</v>
+        <v>-0.04687619420589982</v>
       </c>
       <c r="E25">
-        <v>-0.02725353710947228</v>
+        <v>0.006799706815018767</v>
       </c>
       <c r="F25">
-        <v>0.04115264876798998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01698530868498763</v>
+      </c>
+      <c r="G25">
+        <v>-0.02121738622677496</v>
+      </c>
+      <c r="H25">
+        <v>0.04575554080928483</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01735272161233586</v>
+        <v>-0.01482023126004301</v>
       </c>
       <c r="C26">
-        <v>-0.01211774701274756</v>
+        <v>0.0191382595321871</v>
       </c>
       <c r="D26">
-        <v>-0.02274410851915255</v>
+        <v>-0.01033125359337154</v>
       </c>
       <c r="E26">
-        <v>-0.004735927107165523</v>
+        <v>0.0003799859613786048</v>
       </c>
       <c r="F26">
-        <v>0.05749991096974206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.001338669121010438</v>
+      </c>
+      <c r="G26">
+        <v>-0.02862652585075112</v>
+      </c>
+      <c r="H26">
+        <v>0.02611430125717041</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.04191617089032491</v>
+        <v>-0.01760152277515879</v>
       </c>
       <c r="C27">
-        <v>-0.02245499071932247</v>
+        <v>-0.006352037782662282</v>
       </c>
       <c r="D27">
-        <v>0.002277579035602108</v>
+        <v>-0.01542486054511768</v>
       </c>
       <c r="E27">
-        <v>-0.03520941018429455</v>
+        <v>0.005274926364079286</v>
       </c>
       <c r="F27">
-        <v>0.0228585097450369</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.009311194159206698</v>
+      </c>
+      <c r="G27">
+        <v>-0.006967830483929201</v>
+      </c>
+      <c r="H27">
+        <v>0.0003286834237062496</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.06527754405490449</v>
+        <v>-0.1718573338684377</v>
       </c>
       <c r="C28">
-        <v>-0.007997139889176795</v>
+        <v>0.002983692019503788</v>
       </c>
       <c r="D28">
-        <v>0.1520657662699705</v>
+        <v>0.2029125300507422</v>
       </c>
       <c r="E28">
-        <v>0.144579223642717</v>
+        <v>0.01033542069058634</v>
       </c>
       <c r="F28">
-        <v>0.05024539165478666</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.03292577938490471</v>
+      </c>
+      <c r="G28">
+        <v>-0.01739258892028129</v>
+      </c>
+      <c r="H28">
+        <v>-0.006302746506867432</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02401448926279176</v>
+        <v>-0.02017339395356596</v>
       </c>
       <c r="C29">
-        <v>0.001235902315401491</v>
+        <v>-5.160768657821644e-05</v>
       </c>
       <c r="D29">
-        <v>-0.01996175525327408</v>
+        <v>-0.01702751228490411</v>
       </c>
       <c r="E29">
-        <v>-0.03260086229370707</v>
+        <v>0.015293818508246</v>
       </c>
       <c r="F29">
-        <v>0.05191225824183226</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.01266686538054438</v>
+      </c>
+      <c r="G29">
+        <v>-0.04056772604043699</v>
+      </c>
+      <c r="H29">
+        <v>0.01003414124597321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.05072027314545864</v>
+        <v>-0.04226811407745908</v>
       </c>
       <c r="C30">
-        <v>-0.07261662259221149</v>
+        <v>0.003646893382240456</v>
       </c>
       <c r="D30">
-        <v>-0.04094898974376408</v>
+        <v>-0.09552531722966794</v>
       </c>
       <c r="E30">
-        <v>-0.05771426880144888</v>
+        <v>-0.03073730877290556</v>
       </c>
       <c r="F30">
-        <v>0.09794601932527956</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04459084956123939</v>
+      </c>
+      <c r="G30">
+        <v>-0.0637035456239527</v>
+      </c>
+      <c r="H30">
+        <v>0.07889855094368012</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05411933740966724</v>
+        <v>-0.04794142756567312</v>
       </c>
       <c r="C31">
-        <v>-0.03892110905256801</v>
+        <v>-0.009196430343759282</v>
       </c>
       <c r="D31">
-        <v>-0.01512365729758662</v>
+        <v>-0.03027681393925083</v>
       </c>
       <c r="E31">
-        <v>-0.02495249893482838</v>
+        <v>-0.003278382462533807</v>
       </c>
       <c r="F31">
-        <v>0.03478707608652815</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.00408998545173554</v>
+      </c>
+      <c r="G31">
+        <v>-0.01900385267050953</v>
+      </c>
+      <c r="H31">
+        <v>0.007356641414011984</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02515032200499515</v>
+        <v>-0.01290839957928243</v>
       </c>
       <c r="C32">
-        <v>0.01154051789380109</v>
+        <v>-0.01319377577721821</v>
       </c>
       <c r="D32">
-        <v>-0.04881840249177035</v>
+        <v>-0.01062352091557505</v>
       </c>
       <c r="E32">
-        <v>-0.05445116215052496</v>
+        <v>0.03103368607935952</v>
       </c>
       <c r="F32">
-        <v>0.05457129787219586</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.03487214093456986</v>
+      </c>
+      <c r="G32">
+        <v>-0.0360234742994759</v>
+      </c>
+      <c r="H32">
+        <v>0.05199472853855379</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03154820522037272</v>
+        <v>-0.02870045804866143</v>
       </c>
       <c r="C33">
-        <v>-0.04382502809300493</v>
+        <v>0.0006207804884890428</v>
       </c>
       <c r="D33">
-        <v>-0.05019626155780876</v>
+        <v>-0.04695254014133383</v>
       </c>
       <c r="E33">
-        <v>-0.02078771818432604</v>
+        <v>-0.01963868180336499</v>
       </c>
       <c r="F33">
-        <v>0.06723298094861457</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.0009208501084319255</v>
+      </c>
+      <c r="G33">
+        <v>-0.04931369200300179</v>
+      </c>
+      <c r="H33">
+        <v>0.05868166890428315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03331287102059813</v>
+        <v>-0.02475532531326328</v>
       </c>
       <c r="C34">
-        <v>-0.01227762979410604</v>
+        <v>-0.01751875559030374</v>
       </c>
       <c r="D34">
-        <v>-0.02714072834107512</v>
+        <v>-0.04483304551036219</v>
       </c>
       <c r="E34">
-        <v>-0.04273593418683271</v>
+        <v>0.01379750595137522</v>
       </c>
       <c r="F34">
-        <v>0.04411431540543568</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.01674606778172328</v>
+      </c>
+      <c r="G34">
+        <v>-0.01239949284746296</v>
+      </c>
+      <c r="H34">
+        <v>0.03783868203486838</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01736658391270782</v>
+        <v>-0.01713324773329002</v>
       </c>
       <c r="C36">
-        <v>0.000963259485687933</v>
+        <v>0.006603969012452924</v>
       </c>
       <c r="D36">
-        <v>-0.01462236946708855</v>
+        <v>-0.006529278730661064</v>
       </c>
       <c r="E36">
-        <v>-0.01597552731644076</v>
+        <v>0.009282613609825364</v>
       </c>
       <c r="F36">
-        <v>0.02900423596467224</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.0009894533033827911</v>
+      </c>
+      <c r="G36">
+        <v>-0.02087535509587062</v>
+      </c>
+      <c r="H36">
+        <v>0.0201988735637493</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.007879121540898494</v>
+        <v>-0.02665085919556469</v>
       </c>
       <c r="C38">
-        <v>-0.005907756554054558</v>
+        <v>-0.01549169063974595</v>
       </c>
       <c r="D38">
-        <v>-0.006260002342179594</v>
+        <v>-0.01602883117840745</v>
       </c>
       <c r="E38">
-        <v>0.02146121000759551</v>
+        <v>-0.000209601543623008</v>
       </c>
       <c r="F38">
-        <v>0.04088662335699038</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.009203758298603973</v>
+      </c>
+      <c r="G38">
+        <v>-0.02432017920315258</v>
+      </c>
+      <c r="H38">
+        <v>0.04316741552525784</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02647521563902049</v>
+        <v>-0.01104190537385129</v>
       </c>
       <c r="C39">
-        <v>-0.02002962853616634</v>
+        <v>-0.005503139001739741</v>
       </c>
       <c r="D39">
-        <v>-0.04970026754729285</v>
+        <v>-0.08960783770347309</v>
       </c>
       <c r="E39">
-        <v>-0.04154179831436207</v>
+        <v>-0.006439740852625605</v>
       </c>
       <c r="F39">
-        <v>0.05272265586217798</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.01578414756192056</v>
+      </c>
+      <c r="G39">
+        <v>-0.03879039205330637</v>
+      </c>
+      <c r="H39">
+        <v>0.08049055881617685</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01857925989064738</v>
+        <v>-0.02738330816251731</v>
       </c>
       <c r="C40">
-        <v>-0.0483123024667234</v>
+        <v>0.0001093381703088287</v>
       </c>
       <c r="D40">
-        <v>-0.01105611887870639</v>
+        <v>-0.0355285774806181</v>
       </c>
       <c r="E40">
-        <v>-0.03702955221792967</v>
+        <v>-0.02330857036810851</v>
       </c>
       <c r="F40">
-        <v>0.05890195341082948</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03422157415616367</v>
+      </c>
+      <c r="G40">
+        <v>-0.02286530856459907</v>
+      </c>
+      <c r="H40">
+        <v>0.07122761379231589</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005263172975054642</v>
+        <v>-0.0137236649174479</v>
       </c>
       <c r="C41">
-        <v>0.0008556151248914013</v>
+        <v>0.002508151621894096</v>
       </c>
       <c r="D41">
-        <v>-0.01416559174832328</v>
+        <v>0.01191815905206417</v>
       </c>
       <c r="E41">
-        <v>0.00388601577687875</v>
+        <v>0.003737018437990978</v>
       </c>
       <c r="F41">
-        <v>0.008224087713820261</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.005934292228606818</v>
+      </c>
+      <c r="G41">
+        <v>1.208366690416227e-05</v>
+      </c>
+      <c r="H41">
+        <v>0.001653430855272097</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.22749286439866</v>
+        <v>-0.1400431796203903</v>
       </c>
       <c r="C42">
-        <v>-0.2190361788335924</v>
+        <v>0.07809931232655877</v>
       </c>
       <c r="D42">
-        <v>-0.5422489816325815</v>
+        <v>-0.2354788901851433</v>
       </c>
       <c r="E42">
-        <v>0.6900092670393755</v>
+        <v>-0.2369477382890766</v>
       </c>
       <c r="F42">
-        <v>-0.2796564580856104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.8878494726248752</v>
+      </c>
+      <c r="G42">
+        <v>0.2317783499406376</v>
+      </c>
+      <c r="H42">
+        <v>0.01498526583636254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.003796877558898841</v>
+        <v>-0.01447543591063446</v>
       </c>
       <c r="C43">
-        <v>-0.002638268203335509</v>
+        <v>0.002782244817142242</v>
       </c>
       <c r="D43">
-        <v>-0.01371420232616539</v>
+        <v>0.008540086973305045</v>
       </c>
       <c r="E43">
-        <v>0.0001030560837871639</v>
+        <v>0.0001097764895781744</v>
       </c>
       <c r="F43">
-        <v>0.02701769992025166</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.003935067966607465</v>
+      </c>
+      <c r="G43">
+        <v>-0.0008794049967427078</v>
+      </c>
+      <c r="H43">
+        <v>0.008944811930956796</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02335390048970283</v>
+        <v>-0.01604578334367722</v>
       </c>
       <c r="C44">
-        <v>0.001951091179664743</v>
+        <v>-0.004920121410730469</v>
       </c>
       <c r="D44">
-        <v>-0.03565528909307027</v>
+        <v>-0.04311073937329444</v>
       </c>
       <c r="E44">
-        <v>-0.01240485252750853</v>
+        <v>0.01293818491101232</v>
       </c>
       <c r="F44">
-        <v>0.1005587118710179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.001171253822457316</v>
+      </c>
+      <c r="G44">
+        <v>-0.04293313192084201</v>
+      </c>
+      <c r="H44">
+        <v>0.06622067716348154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02126545146134973</v>
+        <v>-0.01253672458966543</v>
       </c>
       <c r="C46">
-        <v>-0.01103914746409282</v>
+        <v>0.005767286376047187</v>
       </c>
       <c r="D46">
-        <v>-0.03857419417945231</v>
+        <v>-0.01586376567707269</v>
       </c>
       <c r="E46">
-        <v>-0.03108166715550338</v>
+        <v>0.002742115001249508</v>
       </c>
       <c r="F46">
-        <v>0.06139805224862387</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.006857308301426018</v>
+      </c>
+      <c r="G46">
+        <v>-0.04447258885786755</v>
+      </c>
+      <c r="H46">
+        <v>0.01243679597265842</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.08223718939757947</v>
+        <v>-0.06776584222278401</v>
       </c>
       <c r="C47">
-        <v>-0.04982458623340807</v>
+        <v>-0.02423768005958661</v>
       </c>
       <c r="D47">
-        <v>-0.01256125270500987</v>
+        <v>-0.05625760224860189</v>
       </c>
       <c r="E47">
-        <v>-0.03650065770903937</v>
+        <v>0.005152523749418107</v>
       </c>
       <c r="F47">
-        <v>0.0165548299319811</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01146100760564209</v>
+      </c>
+      <c r="G47">
+        <v>0.008975272625799127</v>
+      </c>
+      <c r="H47">
+        <v>-0.01698451251169245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.018424628383601</v>
+        <v>-0.01900282795001173</v>
       </c>
       <c r="C48">
-        <v>-0.0104386583921482</v>
+        <v>-0.004593763067735526</v>
       </c>
       <c r="D48">
-        <v>-0.01939286369469029</v>
+        <v>-0.01523831173531301</v>
       </c>
       <c r="E48">
-        <v>-0.0182794565692414</v>
+        <v>0.002063874604514947</v>
       </c>
       <c r="F48">
-        <v>0.03417828616650342</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.005944475285653146</v>
+      </c>
+      <c r="G48">
+        <v>-0.02225264945725005</v>
+      </c>
+      <c r="H48">
+        <v>0.02179399679424791</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.084839397483296</v>
+        <v>-0.06874990761939814</v>
       </c>
       <c r="C50">
-        <v>-0.03461752567673932</v>
+        <v>-0.02207921697245353</v>
       </c>
       <c r="D50">
-        <v>-0.03128973421164111</v>
+        <v>-0.05459054292429899</v>
       </c>
       <c r="E50">
-        <v>-0.03414828273084375</v>
+        <v>0.01606084275511404</v>
       </c>
       <c r="F50">
-        <v>0.02706603813831486</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.005304683787474947</v>
+      </c>
+      <c r="G50">
+        <v>-0.005068324238070176</v>
+      </c>
+      <c r="H50">
+        <v>-0.0108101922344447</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02008547198553304</v>
+        <v>-0.0176547860747529</v>
       </c>
       <c r="C51">
-        <v>-0.004731055980919686</v>
+        <v>0.00164887388534162</v>
       </c>
       <c r="D51">
-        <v>0.001229060749924121</v>
+        <v>-0.01096888346439663</v>
       </c>
       <c r="E51">
-        <v>0.003366677639486781</v>
+        <v>0.008759971003192139</v>
       </c>
       <c r="F51">
-        <v>0.08733730425930403</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.001558115135471008</v>
+      </c>
+      <c r="G51">
+        <v>-0.03869478340962691</v>
+      </c>
+      <c r="H51">
+        <v>0.04976972497533127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08928996884478813</v>
+        <v>-0.08206003483488437</v>
       </c>
       <c r="C53">
-        <v>-0.0551228317630366</v>
+        <v>-0.03115590679111139</v>
       </c>
       <c r="D53">
-        <v>-0.0166427370570564</v>
+        <v>-0.09364483880812753</v>
       </c>
       <c r="E53">
-        <v>-0.0519832737272037</v>
+        <v>0.007710638983893143</v>
       </c>
       <c r="F53">
-        <v>-0.03794993610286324</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.02863607747293771</v>
+      </c>
+      <c r="G53">
+        <v>0.03352589219414951</v>
+      </c>
+      <c r="H53">
+        <v>-0.02715369394395268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02185158428518685</v>
+        <v>-0.02884792569681476</v>
       </c>
       <c r="C54">
-        <v>-0.0004049399065884273</v>
+        <v>-0.007740239381148346</v>
       </c>
       <c r="D54">
-        <v>-0.01161485370176016</v>
+        <v>0.009256927653019404</v>
       </c>
       <c r="E54">
-        <v>-0.0239835358624541</v>
+        <v>0.008255757664952082</v>
       </c>
       <c r="F54">
-        <v>0.03761887951498958</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.00271728172618774</v>
+      </c>
+      <c r="G54">
+        <v>-0.03808079634027222</v>
+      </c>
+      <c r="H54">
+        <v>0.0074337309528819</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08900039362363787</v>
+        <v>-0.06511307219379196</v>
       </c>
       <c r="C55">
-        <v>-0.04414497948829265</v>
+        <v>-0.02747344223588943</v>
       </c>
       <c r="D55">
-        <v>-0.03057152760078233</v>
+        <v>-0.08825839456413981</v>
       </c>
       <c r="E55">
-        <v>-0.05222243586203972</v>
+        <v>0.01329988198512927</v>
       </c>
       <c r="F55">
-        <v>-0.0287948985531761</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.01905838819600703</v>
+      </c>
+      <c r="G55">
+        <v>0.01069293533654452</v>
+      </c>
+      <c r="H55">
+        <v>-0.03710418986305233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1270911411858095</v>
+        <v>-0.1137472805566735</v>
       </c>
       <c r="C56">
-        <v>-0.08093046958872688</v>
+        <v>-0.0470835736515173</v>
       </c>
       <c r="D56">
-        <v>0.01251767306080932</v>
+        <v>-0.1151203134848327</v>
       </c>
       <c r="E56">
-        <v>-0.08713862880203885</v>
+        <v>0.006467029386888409</v>
       </c>
       <c r="F56">
-        <v>-0.07123839810699047</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.05361438730158492</v>
+      </c>
+      <c r="G56">
+        <v>0.06636809151852889</v>
+      </c>
+      <c r="H56">
+        <v>-0.05588696974637782</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03820716812320566</v>
+        <v>-0.03186784526739209</v>
       </c>
       <c r="C57">
-        <v>-0.03466167082018348</v>
+        <v>0.01362436967231627</v>
       </c>
       <c r="D57">
-        <v>-0.02191577413123732</v>
+        <v>-0.03632518149024809</v>
       </c>
       <c r="E57">
-        <v>0.003825774628270627</v>
+        <v>-0.009060838842299548</v>
       </c>
       <c r="F57">
-        <v>0.05032832098291935</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.002069589017584058</v>
+      </c>
+      <c r="G57">
+        <v>-0.07055143298825627</v>
+      </c>
+      <c r="H57">
+        <v>0.05424224857581244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1457348986489835</v>
+        <v>-0.1318864013410753</v>
       </c>
       <c r="C58">
-        <v>-0.2008477140124709</v>
+        <v>-0.0388748483695408</v>
       </c>
       <c r="D58">
-        <v>-0.1677820384061453</v>
+        <v>-0.1643359450128959</v>
       </c>
       <c r="E58">
-        <v>-0.07303168936328878</v>
+        <v>-0.2324927368292912</v>
       </c>
       <c r="F58">
-        <v>0.5066430384069688</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.1017061509921972</v>
+      </c>
+      <c r="G58">
+        <v>-0.8055886202930295</v>
+      </c>
+      <c r="H58">
+        <v>-0.3987458585956698</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05169436753323144</v>
+        <v>-0.1839995896123066</v>
       </c>
       <c r="C59">
-        <v>-0.02878178442174295</v>
+        <v>-0.005477458159879041</v>
       </c>
       <c r="D59">
-        <v>0.1575646685398425</v>
+        <v>0.2015544722732882</v>
       </c>
       <c r="E59">
-        <v>0.1061675803702461</v>
+        <v>-0.006587237459990998</v>
       </c>
       <c r="F59">
-        <v>0.0741104210392985</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.001369243204755526</v>
+      </c>
+      <c r="G59">
+        <v>-0.01654502532399885</v>
+      </c>
+      <c r="H59">
+        <v>0.0238448360293626</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.127014674708199</v>
+        <v>-0.1978303595318456</v>
       </c>
       <c r="C60">
-        <v>-0.1169519036075376</v>
+        <v>-0.02350170118522611</v>
       </c>
       <c r="D60">
-        <v>0.001040865253468157</v>
+        <v>-0.03560259657412857</v>
       </c>
       <c r="E60">
-        <v>0.03866973113980249</v>
+        <v>-0.05480897717035608</v>
       </c>
       <c r="F60">
-        <v>0.1589207726649104</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.06124561163660206</v>
+      </c>
+      <c r="G60">
+        <v>-0.02743762768493063</v>
+      </c>
+      <c r="H60">
+        <v>0.3550682615656489</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02142671571759732</v>
+        <v>-0.01855854636523795</v>
       </c>
       <c r="C61">
-        <v>-0.01068561754638993</v>
+        <v>-0.008724448262566017</v>
       </c>
       <c r="D61">
-        <v>-0.03572676139081384</v>
+        <v>-0.0575698004344481</v>
       </c>
       <c r="E61">
-        <v>-0.02568159382594403</v>
+        <v>0.003327091215625538</v>
       </c>
       <c r="F61">
-        <v>0.02237982046843879</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.01953703593796808</v>
+      </c>
+      <c r="G61">
+        <v>-0.02571246554697214</v>
+      </c>
+      <c r="H61">
+        <v>0.0597053390108014</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01194662516707039</v>
+        <v>-0.01011072926665406</v>
       </c>
       <c r="C63">
-        <v>-0.006534511238401785</v>
+        <v>0.002253976307115666</v>
       </c>
       <c r="D63">
-        <v>-0.02807077656916569</v>
+        <v>-0.02470336052710539</v>
       </c>
       <c r="E63">
-        <v>-0.02123618481248333</v>
+        <v>0.005867302691529568</v>
       </c>
       <c r="F63">
-        <v>0.006976858246199853</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.00968902389648521</v>
+      </c>
+      <c r="G63">
+        <v>-0.01631726228553923</v>
+      </c>
+      <c r="H63">
+        <v>0.01736412584125696</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03481883590517196</v>
+        <v>-0.03742324963366184</v>
       </c>
       <c r="C64">
-        <v>-0.004246430683919784</v>
+        <v>-0.008071728346297069</v>
       </c>
       <c r="D64">
-        <v>-0.02742607252355322</v>
+        <v>-0.04332215024480481</v>
       </c>
       <c r="E64">
-        <v>-0.03296379137583982</v>
+        <v>0.01107871551035082</v>
       </c>
       <c r="F64">
-        <v>0.02998472764438647</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.002353339783263882</v>
+      </c>
+      <c r="G64">
+        <v>-0.006467100835820175</v>
+      </c>
+      <c r="H64">
+        <v>0.05066232534868564</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03637052729462701</v>
+        <v>-0.04060116076913476</v>
       </c>
       <c r="C65">
-        <v>-0.01489237817016992</v>
+        <v>-0.001072990799764881</v>
       </c>
       <c r="D65">
-        <v>-0.02027332723352242</v>
+        <v>-0.07116915983780345</v>
       </c>
       <c r="E65">
-        <v>-0.02739266810177702</v>
+        <v>0.006888751315412595</v>
       </c>
       <c r="F65">
-        <v>0.004828529955284772</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03914043780647183</v>
+      </c>
+      <c r="G65">
+        <v>0.0009311477364025414</v>
+      </c>
+      <c r="H65">
+        <v>0.07291572238715661</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.0317360368185574</v>
+        <v>-0.01910467360376803</v>
       </c>
       <c r="C66">
-        <v>-0.03124779120195322</v>
+        <v>-0.01246053864997197</v>
       </c>
       <c r="D66">
-        <v>-0.0470610523823083</v>
+        <v>-0.1136846348348427</v>
       </c>
       <c r="E66">
-        <v>-0.06250660612756337</v>
+        <v>-0.007454281492567943</v>
       </c>
       <c r="F66">
-        <v>0.03766731234344322</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.03741743308378975</v>
+      </c>
+      <c r="G66">
+        <v>-0.03610632069913184</v>
+      </c>
+      <c r="H66">
+        <v>0.081801050889987</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01743534150622493</v>
+        <v>-0.04742197190496821</v>
       </c>
       <c r="C67">
-        <v>-0.01540981078234158</v>
+        <v>-0.01705521869363883</v>
       </c>
       <c r="D67">
-        <v>0.0064038472778734</v>
+        <v>-0.01938312268436296</v>
       </c>
       <c r="E67">
-        <v>0.01793444865495988</v>
+        <v>-0.002241161595758672</v>
       </c>
       <c r="F67">
-        <v>0.02398539269010969</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01956092746277689</v>
+      </c>
+      <c r="G67">
+        <v>-0.01413349619398558</v>
+      </c>
+      <c r="H67">
+        <v>0.04239345684102026</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06683305428747632</v>
+        <v>-0.1835063825953748</v>
       </c>
       <c r="C68">
-        <v>-0.02506250751948479</v>
+        <v>0.01740489674883864</v>
       </c>
       <c r="D68">
-        <v>0.169394565245632</v>
+        <v>0.2229799489995268</v>
       </c>
       <c r="E68">
-        <v>0.1153221671004908</v>
+        <v>-0.006706045071890781</v>
       </c>
       <c r="F68">
-        <v>0.06587581316046884</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.0394621940264245</v>
+      </c>
+      <c r="G68">
+        <v>-0.02706026706290599</v>
+      </c>
+      <c r="H68">
+        <v>-0.05395686824035329</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05922091015369554</v>
+        <v>-0.06020444335474325</v>
       </c>
       <c r="C69">
-        <v>-0.04052803731307782</v>
+        <v>-0.02625914234616879</v>
       </c>
       <c r="D69">
-        <v>-0.004238851773567831</v>
+        <v>-0.05069921341005844</v>
       </c>
       <c r="E69">
-        <v>-0.04174094712917652</v>
+        <v>0.00254046072625796</v>
       </c>
       <c r="F69">
-        <v>0.01180297691306852</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.0279143983877696</v>
+      </c>
+      <c r="G69">
+        <v>0.008352702575646881</v>
+      </c>
+      <c r="H69">
+        <v>0.01342202819569673</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06833309965039364</v>
+        <v>-0.166930387290191</v>
       </c>
       <c r="C71">
-        <v>-0.032942302477152</v>
+        <v>0.005812996662163691</v>
       </c>
       <c r="D71">
-        <v>0.1662402839018058</v>
+        <v>0.1808673438803721</v>
       </c>
       <c r="E71">
-        <v>0.1646892134255914</v>
+        <v>-0.01279724827376328</v>
       </c>
       <c r="F71">
-        <v>0.06333045806218611</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.04988078407721042</v>
+      </c>
+      <c r="G71">
+        <v>-0.0323809405386245</v>
+      </c>
+      <c r="H71">
+        <v>-0.02156356550933435</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09870304281321432</v>
+        <v>-0.07136421716613062</v>
       </c>
       <c r="C72">
-        <v>-0.07300160801646766</v>
+        <v>-0.03451092526281375</v>
       </c>
       <c r="D72">
-        <v>-0.01001866932789854</v>
+        <v>-0.08605893447037706</v>
       </c>
       <c r="E72">
-        <v>-0.07456561211895368</v>
+        <v>-0.01274349314477717</v>
       </c>
       <c r="F72">
-        <v>0.07137704186905559</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.06573709558704637</v>
+      </c>
+      <c r="G72">
+        <v>-0.0241951652377402</v>
+      </c>
+      <c r="H72">
+        <v>0.129268787859755</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.167164038048114</v>
+        <v>-0.2603376464533937</v>
       </c>
       <c r="C73">
-        <v>-0.1867245147170019</v>
+        <v>-0.03475222507400064</v>
       </c>
       <c r="D73">
-        <v>0.02052727252911792</v>
+        <v>-0.1085427081109569</v>
       </c>
       <c r="E73">
-        <v>0.09756181972102228</v>
+        <v>-0.09476058988830935</v>
       </c>
       <c r="F73">
-        <v>0.2102884158685814</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.07253904995943665</v>
+      </c>
+      <c r="G73">
+        <v>-0.04149962677000858</v>
+      </c>
+      <c r="H73">
+        <v>0.4597818688907237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1187424732089989</v>
+        <v>-0.1116857747686451</v>
       </c>
       <c r="C74">
-        <v>-0.07292708632328776</v>
+        <v>-0.04704099447363909</v>
       </c>
       <c r="D74">
-        <v>-0.00403726983796726</v>
+        <v>-0.1195040100478325</v>
       </c>
       <c r="E74">
-        <v>-0.05479573989532297</v>
+        <v>0.01288295996836329</v>
       </c>
       <c r="F74">
-        <v>-0.08634004135286948</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.03958647762531461</v>
+      </c>
+      <c r="G74">
+        <v>0.05290807257242442</v>
+      </c>
+      <c r="H74">
+        <v>-0.02173029308471193</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2029734376085699</v>
+        <v>-0.2184075743082623</v>
       </c>
       <c r="C75">
-        <v>-0.1479876404508506</v>
+        <v>-0.0870781530587619</v>
       </c>
       <c r="D75">
-        <v>0.0452294663164344</v>
+        <v>-0.1852521371264431</v>
       </c>
       <c r="E75">
-        <v>-0.1457129454141793</v>
+        <v>-0.003797139484695538</v>
       </c>
       <c r="F75">
-        <v>-0.1086728487749317</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.095593880059366</v>
+      </c>
+      <c r="G75">
+        <v>0.1092757078541817</v>
+      </c>
+      <c r="H75">
+        <v>-0.1240307153251038</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.254196624474636</v>
+        <v>-0.1753142535207153</v>
       </c>
       <c r="C76">
-        <v>-0.1305034935844127</v>
+        <v>-0.07942218255221364</v>
       </c>
       <c r="D76">
-        <v>0.03779789389140025</v>
+        <v>-0.1830794461998583</v>
       </c>
       <c r="E76">
-        <v>-0.183748958712353</v>
+        <v>0.04441299738879432</v>
       </c>
       <c r="F76">
-        <v>-0.1962952094454582</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.08704848125987852</v>
+      </c>
+      <c r="G76">
+        <v>0.1109422844506639</v>
+      </c>
+      <c r="H76">
+        <v>-0.1161713150484026</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.09781308605718374</v>
+        <v>-0.06202187329063647</v>
       </c>
       <c r="C77">
-        <v>-0.07895090418631769</v>
+        <v>-0.008738063611416909</v>
       </c>
       <c r="D77">
-        <v>-0.1318507989267955</v>
+        <v>-0.08597749371332632</v>
       </c>
       <c r="E77">
-        <v>-0.02214533232988196</v>
+        <v>-0.0181272195115265</v>
       </c>
       <c r="F77">
-        <v>0.1579063660429838</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.02097283646179757</v>
+      </c>
+      <c r="G77">
+        <v>-0.08062128824444728</v>
+      </c>
+      <c r="H77">
+        <v>0.02615953901968445</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06550182727739412</v>
+        <v>-0.03389348568066496</v>
       </c>
       <c r="C78">
-        <v>-0.03747833980828199</v>
+        <v>-0.01105450525199292</v>
       </c>
       <c r="D78">
-        <v>-0.0898293975488587</v>
+        <v>-0.07184308798441907</v>
       </c>
       <c r="E78">
-        <v>-0.05467643173157036</v>
+        <v>0.003484292159948148</v>
       </c>
       <c r="F78">
-        <v>0.08992191578934015</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.01522124647916341</v>
+      </c>
+      <c r="G78">
+        <v>-0.06606184632814835</v>
+      </c>
+      <c r="H78">
+        <v>0.09276558069228182</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.5872100457380088</v>
+        <v>-0.1235215923519518</v>
       </c>
       <c r="C80">
-        <v>0.7897420209956019</v>
+        <v>-0.02646914494931465</v>
       </c>
       <c r="D80">
-        <v>-0.07706618669821422</v>
+        <v>-0.09252295872893589</v>
       </c>
       <c r="E80">
-        <v>0.0277780448190325</v>
+        <v>0.9232262573323087</v>
       </c>
       <c r="F80">
-        <v>0.04236255246099908</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.2538969131420803</v>
+      </c>
+      <c r="G80">
+        <v>-0.1614765218047913</v>
+      </c>
+      <c r="H80">
+        <v>0.003017336381365934</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1641223477262813</v>
+        <v>-0.1426887321378607</v>
       </c>
       <c r="C81">
-        <v>-0.1001500997442351</v>
+        <v>-0.05615347272755972</v>
       </c>
       <c r="D81">
-        <v>0.04165570690310424</v>
+        <v>-0.1219729958494699</v>
       </c>
       <c r="E81">
-        <v>-0.1190672404690136</v>
+        <v>0.01380873031892475</v>
       </c>
       <c r="F81">
-        <v>-0.1075454423282058</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.06139253242580833</v>
+      </c>
+      <c r="G81">
+        <v>0.07220971585143761</v>
+      </c>
+      <c r="H81">
+        <v>-0.07525462599243227</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03036368885239193</v>
+        <v>-0.03181991501673383</v>
       </c>
       <c r="C83">
-        <v>-0.02729697437694831</v>
+        <v>-0.004474730197676961</v>
       </c>
       <c r="D83">
-        <v>-0.0317805835700353</v>
+        <v>-0.02740996557750018</v>
       </c>
       <c r="E83">
-        <v>-0.001655712265227033</v>
+        <v>-0.007289669718336385</v>
       </c>
       <c r="F83">
-        <v>0.06264405310295548</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.004409065077947214</v>
+      </c>
+      <c r="G83">
+        <v>-0.04353685519323513</v>
+      </c>
+      <c r="H83">
+        <v>0.04609157656390395</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2273936208850975</v>
+        <v>-0.2004949459085497</v>
       </c>
       <c r="C85">
-        <v>-0.1468101270058462</v>
+        <v>-0.07081032867973082</v>
       </c>
       <c r="D85">
-        <v>0.02498973139958287</v>
+        <v>-0.1891904212560555</v>
       </c>
       <c r="E85">
-        <v>-0.1369826746331336</v>
+        <v>-0.0003398992791995704</v>
       </c>
       <c r="F85">
-        <v>-0.1384578384026844</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.07964677994634915</v>
+      </c>
+      <c r="G85">
+        <v>0.1374385861380548</v>
+      </c>
+      <c r="H85">
+        <v>-0.06340686062160454</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.00563042356302155</v>
+        <v>-0.01948592126856926</v>
       </c>
       <c r="C86">
-        <v>0.0022192642455028</v>
+        <v>-0.001927404177915473</v>
       </c>
       <c r="D86">
-        <v>-0.06292051144664924</v>
+        <v>-0.04228577599924685</v>
       </c>
       <c r="E86">
-        <v>-0.01697888616370557</v>
+        <v>0.004185810866126633</v>
       </c>
       <c r="F86">
-        <v>0.05136028164759388</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.008919411378378072</v>
+      </c>
+      <c r="G86">
+        <v>-0.05211464919593466</v>
+      </c>
+      <c r="H86">
+        <v>0.09908555064564652</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03650988921302475</v>
+        <v>-0.019483347429291</v>
       </c>
       <c r="C87">
-        <v>-0.01712500661185917</v>
+        <v>-0.001716114298532923</v>
       </c>
       <c r="D87">
-        <v>-0.02893276508177077</v>
+        <v>-0.04742050520089379</v>
       </c>
       <c r="E87">
-        <v>-0.009039766271778682</v>
+        <v>0.001250029264306587</v>
       </c>
       <c r="F87">
-        <v>0.1140507980844731</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.003498834467583384</v>
+      </c>
+      <c r="G87">
+        <v>-0.08684605581389894</v>
+      </c>
+      <c r="H87">
+        <v>0.08151881480561385</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.02071654801722152</v>
+        <v>-0.03895131082095391</v>
       </c>
       <c r="C88">
-        <v>0.00181562036929097</v>
+        <v>0.01196368928187537</v>
       </c>
       <c r="D88">
-        <v>0.009306894157007464</v>
+        <v>-0.02427181701251524</v>
       </c>
       <c r="E88">
-        <v>-0.01499020523068737</v>
+        <v>0.01670321544717382</v>
       </c>
       <c r="F88">
-        <v>-0.01152345243576226</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01622361697989311</v>
+      </c>
+      <c r="G88">
+        <v>0.0008723753489720173</v>
+      </c>
+      <c r="H88">
+        <v>0.0165434364011671</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09687697631327784</v>
+        <v>-0.2891456625714104</v>
       </c>
       <c r="C89">
-        <v>-0.05287647502151915</v>
+        <v>0.01242383830552362</v>
       </c>
       <c r="D89">
-        <v>0.2800819028364366</v>
+        <v>0.323727815889092</v>
       </c>
       <c r="E89">
-        <v>0.1927279394185406</v>
+        <v>-0.01432643844197116</v>
       </c>
       <c r="F89">
-        <v>0.09709478450826872</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.0201660741144066</v>
+      </c>
+      <c r="G89">
+        <v>0.01827345567317793</v>
+      </c>
+      <c r="H89">
+        <v>0.0144380388044848</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.0902018561134879</v>
+        <v>-0.2358273096448279</v>
       </c>
       <c r="C90">
-        <v>-0.02562767336460137</v>
+        <v>0.01194957604597843</v>
       </c>
       <c r="D90">
-        <v>0.2919252992264255</v>
+        <v>0.2916476134146453</v>
       </c>
       <c r="E90">
-        <v>0.2112752537587686</v>
+        <v>-0.003331214834429132</v>
       </c>
       <c r="F90">
-        <v>0.06449208879092645</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.0525304499695697</v>
+      </c>
+      <c r="G90">
+        <v>0.003882503559473469</v>
+      </c>
+      <c r="H90">
+        <v>-0.05556530763623278</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2581774579031601</v>
+        <v>-0.2148483753266328</v>
       </c>
       <c r="C91">
-        <v>-0.1849059014329811</v>
+        <v>-0.08317080778719034</v>
       </c>
       <c r="D91">
-        <v>0.02407457500028804</v>
+        <v>-0.1737964403630369</v>
       </c>
       <c r="E91">
-        <v>-0.1421523197458614</v>
+        <v>-0.006796882870502129</v>
       </c>
       <c r="F91">
-        <v>-0.2312746958609831</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.08221521808632976</v>
+      </c>
+      <c r="G91">
+        <v>0.1379610812442031</v>
+      </c>
+      <c r="H91">
+        <v>-0.1518981392529108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1508865648715172</v>
+        <v>-0.2757137243013962</v>
       </c>
       <c r="C92">
-        <v>-0.06820540496428802</v>
+        <v>-0.05149294076409258</v>
       </c>
       <c r="D92">
-        <v>0.4180178685024417</v>
+        <v>0.2155577256931504</v>
       </c>
       <c r="E92">
-        <v>0.09573868704283889</v>
+        <v>0.006734920751718977</v>
       </c>
       <c r="F92">
-        <v>-0.05818460989420449</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.01882652778188635</v>
+      </c>
+      <c r="G92">
+        <v>-0.02627837360347697</v>
+      </c>
+      <c r="H92">
+        <v>-0.1073909016845845</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.08249154688565952</v>
+        <v>-0.2647845159269878</v>
       </c>
       <c r="C93">
-        <v>-0.05814747388326146</v>
+        <v>0.002721346233375948</v>
       </c>
       <c r="D93">
-        <v>0.3583663272156473</v>
+        <v>0.3012767866592055</v>
       </c>
       <c r="E93">
-        <v>0.2863470547736771</v>
+        <v>-0.03144526119414561</v>
       </c>
       <c r="F93">
-        <v>0.04003017820592256</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.05100591721152088</v>
+      </c>
+      <c r="G93">
+        <v>0.01002264871036411</v>
+      </c>
+      <c r="H93">
+        <v>0.01198135861931145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2489120821695278</v>
+        <v>-0.260817511233167</v>
       </c>
       <c r="C94">
-        <v>-0.1876659464305315</v>
+        <v>-0.07850705684983304</v>
       </c>
       <c r="D94">
-        <v>0.07601875292931519</v>
+        <v>-0.1820353544196504</v>
       </c>
       <c r="E94">
-        <v>-0.2283182486081042</v>
+        <v>-0.01228923719473205</v>
       </c>
       <c r="F94">
-        <v>-0.1786302220311369</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1899935327430826</v>
+      </c>
+      <c r="G94">
+        <v>0.2480092579716965</v>
+      </c>
+      <c r="H94">
+        <v>-0.3724517372535316</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.01723054275278632</v>
+        <v>-0.0460164401612906</v>
       </c>
       <c r="C95">
-        <v>-0.08775676838091431</v>
+        <v>-0.02952896414332399</v>
       </c>
       <c r="D95">
-        <v>-0.06268761451585796</v>
+        <v>-0.09193055214778802</v>
       </c>
       <c r="E95">
-        <v>-0.02404829222028594</v>
+        <v>-0.08118722070504017</v>
       </c>
       <c r="F95">
-        <v>0.01470408091314791</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.006498140182570208</v>
+      </c>
+      <c r="G95">
+        <v>-0.04335860445088947</v>
+      </c>
+      <c r="H95">
+        <v>0.05541086788048853</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1297510224829979</v>
+        <v>-0.1818950197020345</v>
       </c>
       <c r="C98">
-        <v>-0.1189383958419886</v>
+        <v>-0.05023597105890115</v>
       </c>
       <c r="D98">
-        <v>0.01712827984360725</v>
+        <v>-0.04957303361215057</v>
       </c>
       <c r="E98">
-        <v>0.08586466088167966</v>
+        <v>-0.06460005143508329</v>
       </c>
       <c r="F98">
-        <v>0.1460027190446798</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.01514337218598569</v>
+      </c>
+      <c r="G98">
+        <v>-0.0827701911585008</v>
+      </c>
+      <c r="H98">
+        <v>0.3294719504659042</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.01066509479200164</v>
+        <v>-0.01430013193819489</v>
       </c>
       <c r="C101">
-        <v>0.002166226410666361</v>
+        <v>0.0008820709770714022</v>
       </c>
       <c r="D101">
-        <v>-0.05538174002702881</v>
+        <v>-0.0180350008135678</v>
       </c>
       <c r="E101">
-        <v>-0.05882062462253949</v>
+        <v>0.00454971846630794</v>
       </c>
       <c r="F101">
-        <v>0.1771385584191702</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.01275078919878376</v>
+      </c>
+      <c r="G101">
+        <v>-0.1027695496617311</v>
+      </c>
+      <c r="H101">
+        <v>-0.01452182023994757</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1045857910661194</v>
+        <v>-0.09748976270388868</v>
       </c>
       <c r="C102">
-        <v>-0.06591102389492423</v>
+        <v>-0.02750277424458962</v>
       </c>
       <c r="D102">
-        <v>0.0091473804701237</v>
+        <v>-0.09276758907817889</v>
       </c>
       <c r="E102">
-        <v>-0.07812311433061749</v>
+        <v>0.004978888367086406</v>
       </c>
       <c r="F102">
-        <v>-0.08706063198482521</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.04694064644800709</v>
+      </c>
+      <c r="G102">
+        <v>0.06624470590218991</v>
+      </c>
+      <c r="H102">
+        <v>-0.05619668611499762</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04193241718187843</v>
+        <v>-0.01408808067059254</v>
       </c>
       <c r="C103">
-        <v>-0.01258556836791123</v>
+        <v>-0.005261344798475719</v>
       </c>
       <c r="D103">
-        <v>-0.01144018016544703</v>
+        <v>-0.01736374080533001</v>
       </c>
       <c r="E103">
-        <v>-0.04336725474895159</v>
+        <v>0.01231302980356784</v>
       </c>
       <c r="F103">
-        <v>-0.002305201890480004</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.005616264284779224</v>
+      </c>
+      <c r="G103">
+        <v>-0.003238644290890519</v>
+      </c>
+      <c r="H103">
+        <v>-0.01150377315286794</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1525348027049996</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9666965894066304</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.1160008069994443</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.03021808735528959</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1280602236863428</v>
+      </c>
+      <c r="G104">
+        <v>0.00676714109852765</v>
+      </c>
+      <c r="H104">
+        <v>-0.04808403424285844</v>
       </c>
     </row>
   </sheetData>
